--- a/3_Results/34_ResultsART/art_spillover_interaction.xlsx
+++ b/3_Results/34_ResultsART/art_spillover_interaction.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y2_ik ~ T_k + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + age + education + alcohol_weekly + partners_12mos</t>
+          <t>Y2_ik ~ T_k + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + Z3_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y2_ik ~ T_k + Z3_k + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + Z3_k + age + education + alcohol_weekly + partners_12mos</t>
+          <t>Y2_ik ~ T_k + Z3_k + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -569,20 +569,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.95 (-2.11, 0.2)</t>
+          <t>-1.02 (-2.37, 0.32)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="H2">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -603,20 +603,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1.19 (-2.39, 0.02)</t>
+          <t>-0.91 (-2.25, 0.44)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="H3">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -637,17 +637,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.28 (-2.44, 1.89)</t>
+          <t>-0.11 (-2.02, 1.79)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="G4">
-        <v>1.22</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H4">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -668,7 +668,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.23 (NA, NA)</t>
+          <t>-0.11 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -690,14 +690,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25 (-1.5, 2.01)</t>
+          <t>0.11 (-1.65, 1.87)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H6">
         <v>0.9</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.25 (NA, NA)</t>
+          <t>0.11 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -798,20 +798,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.39 (0.12, 1.22)</t>
+          <t>0.36 (0.09, 1.38)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="H2">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -832,20 +832,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31 (0.09, 1.02)</t>
+          <t>0.4 (0.1, 1.55)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="H3">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -866,17 +866,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76 (0.09, 6.63)</t>
+          <t>0.89 (0.13, 6)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="G4">
-        <v>1.22</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H4">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -897,7 +897,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.26 (NA, NA)</t>
+          <t>0.89 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -919,14 +919,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25 (-1.5, 2.01)</t>
+          <t>0.11 (-1.65, 1.87)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H6">
         <v>0.9</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.25 (NA, NA)</t>
+          <t>0.11 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,20 +1017,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.95 (-2.11, 0.2)</t>
+          <t>-1.02 (-2.37, 0.32)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="G2">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1041,25 +1041,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>genderMale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.1 (0.04, 0.17)</t>
+          <t>0.91 (-0.45, 2.26)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1070,25 +1070,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.15 (-4.22, -0.08)</t>
+          <t>0.11 (0.03, 0.19)</t>
         </is>
       </c>
       <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.04</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.12</v>
-      </c>
-      <c r="G4">
-        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -1099,25 +1099,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-16.62 (-2023.63, 1990.38)</t>
+          <t>15.68 (-23001.54, 23032.89)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1048576.44</v>
+        <v>137914281.53</v>
       </c>
       <c r="G5">
-        <v>1024</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="6">
@@ -1128,25 +1128,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>monthly_income200-499 pula</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.91 (-4, 0.19)</t>
+          <t>-1.03 (-28131.67, 28129.61)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.14</v>
+        <v>205998016.01</v>
       </c>
       <c r="G6">
-        <v>1.07</v>
+        <v>14352.63</v>
       </c>
     </row>
     <row r="7">
@@ -1157,25 +1157,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>monthly_income500-999 pula</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.35 (-1.95, 1.25)</t>
+          <t>17.06 (-23000.15, 23034.27)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.67</v>
+        <v>137914281.11</v>
       </c>
       <c r="G7">
-        <v>0.82</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="8">
@@ -1186,25 +1186,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>monthly_income5000-10000 pula</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.12 (-2.01, 1.76)</t>
+          <t>16.17 (-23001.05, 23033.38)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.92</v>
+        <v>137914284.41</v>
       </c>
       <c r="G8">
-        <v>0.96</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.74 (0.36, 1.13)</t>
+          <t>15.82 (-23001.39, 23033.04)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>137914283.25</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="10">
@@ -1244,25 +1244,344 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17.24 (-22999.97, 23034.45)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>137914280.48</v>
+      </c>
+      <c r="G10">
+        <v>11743.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.64 (0.22, 1.06)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
+      </c>
+      <c r="G11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>partners_12mos</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-0.86 (-1.59, -0.12)</t>
-        </is>
-      </c>
-      <c r="D10">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-1.13 (-2.02, -0.23)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.21</v>
+      </c>
+      <c r="G12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-5.14 (-18.42, 8.13)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.45</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>45.87</v>
+      </c>
+      <c r="G13">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>marital_statusMarried</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-1.12 (-3.66, 1.41)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.39</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.67</v>
+      </c>
+      <c r="G14">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-0.64 (-2.97, 1.68)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.59</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.4</v>
+      </c>
+      <c r="G15">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-1.06 (-4.22, 2.1)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.51</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2.6</v>
+      </c>
+      <c r="G16">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-2.8 (-5.25, -0.36)</t>
+        </is>
+      </c>
+      <c r="D17">
         <v>0.02</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.14</v>
-      </c>
-      <c r="G10">
-        <v>0.38</v>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.56</v>
+      </c>
+      <c r="G17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-2.38 (-4.95, 0.18)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.71</v>
+      </c>
+      <c r="G18">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.78 (-2.73, 1.18)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.44</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.99</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-0.15 (-2.43, 2.12)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.35</v>
+      </c>
+      <c r="G20">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.1 (-8.13, 14.32)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.59</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>32.81</v>
+      </c>
+      <c r="G21">
+        <v>5.73</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1328,20 +1647,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.39 (0.12, 1.22)</t>
+          <t>0.36 (0.09, 1.38)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="G2">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1352,25 +1671,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>genderMale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.11 (1.04, 1.18)</t>
+          <t>2.47 (0.64, 9.62)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1381,25 +1700,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.12 (0.01, 0.92)</t>
+          <t>1.12 (1.03, 1.21)</t>
         </is>
       </c>
       <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.04</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.12</v>
-      </c>
-      <c r="G4">
-        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -1410,25 +1729,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0 (0, Inf)</t>
+          <t>6429059.54 (0, Inf)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1048576.44</v>
+        <v>137914281.53</v>
       </c>
       <c r="G5">
-        <v>1024</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="6">
@@ -1439,25 +1758,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>monthly_income200-499 pula</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.15 (0.02, 1.21)</t>
+          <t>0.36 (0, Inf)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.14</v>
+        <v>205998016.01</v>
       </c>
       <c r="G6">
-        <v>1.07</v>
+        <v>14352.63</v>
       </c>
     </row>
     <row r="7">
@@ -1468,25 +1787,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>monthly_income500-999 pula</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.71 (0.14, 3.5)</t>
+          <t>25695205.65 (0, Inf)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.67</v>
+        <v>137914281.11</v>
       </c>
       <c r="G7">
-        <v>0.82</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="8">
@@ -1497,25 +1816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>monthly_income5000-10000 pula</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.89 (0.13, 5.84)</t>
+          <t>10500007.11 (0, Inf)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.92</v>
+        <v>137914284.41</v>
       </c>
       <c r="G8">
-        <v>0.96</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="9">
@@ -1526,25 +1845,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.1 (1.43, 3.08)</t>
+          <t>7457143.75 (0, Inf)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>137914283.25</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>11743.69</v>
       </c>
     </row>
     <row r="10">
@@ -1555,25 +1874,344 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30696871.41 (0, Inf)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>137914280.48</v>
+      </c>
+      <c r="G10">
+        <v>11743.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.9 (1.25, 2.87)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
+      </c>
+      <c r="G11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>partners_12mos</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.42 (0.2, 0.88)</t>
-        </is>
-      </c>
-      <c r="D10">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.32 (0.13, 0.8)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.21</v>
+      </c>
+      <c r="G12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.01 (0, 3402.98)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.45</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>45.87</v>
+      </c>
+      <c r="G13">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>marital_statusMarried</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.33 (0.03, 4.11)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.39</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.67</v>
+      </c>
+      <c r="G14">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.52 (0.05, 5.36)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.59</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.4</v>
+      </c>
+      <c r="G15">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.35 (0.01, 8.16)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.51</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2.6</v>
+      </c>
+      <c r="G16">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.06 (0.01, 0.7)</t>
+        </is>
+      </c>
+      <c r="D17">
         <v>0.02</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.14</v>
-      </c>
-      <c r="G10">
-        <v>0.38</v>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.56</v>
+      </c>
+      <c r="G17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.09 (0.01, 1.2)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.71</v>
+      </c>
+      <c r="G18">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.46 (0.07, 3.25)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.44</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.99</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.86 (0.09, 8.35)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.35</v>
+      </c>
+      <c r="G20">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22.09 (0, 1659335.73)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.59</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>32.81</v>
+      </c>
+      <c r="G21">
+        <v>5.73</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1639,20 +2277,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.19 (-2.39, 0.02)</t>
+          <t>-0.91 (-2.25, 0.44)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="G2">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1668,20 +2306,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.4 (-2.29, 15.09)</t>
+          <t>14.32 (0.72, 27.91)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.65</v>
+        <v>48.14</v>
       </c>
       <c r="G3">
-        <v>4.43</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -1692,25 +2330,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>genderMale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.11 (0.04, 0.18)</t>
+          <t>1 (-0.39, 2.4)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -1721,25 +2359,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.13 (-4.21, -0.05)</t>
+          <t>0.12 (0.03, 0.2)</t>
         </is>
       </c>
       <c r="D5">
+        <v>0.01</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.04</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1.13</v>
-      </c>
-      <c r="G5">
-        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -1750,25 +2388,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-21.05 (-2028.06, 1985.95)</t>
+          <t>15.25 (-357.66, 388.16)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1048577.3</v>
+        <v>36200.24</v>
       </c>
       <c r="G6">
-        <v>1024</v>
+        <v>190.26</v>
       </c>
     </row>
     <row r="7">
@@ -1779,25 +2417,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>monthly_income200-499 pula</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.9 (-4.01, 0.21)</t>
+          <t>-4.73 (-1424.66, 1415.2)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.16</v>
+        <v>524853.97</v>
       </c>
       <c r="G7">
-        <v>1.08</v>
+        <v>724.47</v>
       </c>
     </row>
     <row r="8">
@@ -1808,25 +2446,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>monthly_income500-999 pula</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.33 (-1.94, 1.29)</t>
+          <t>16.45 (-356.45, 389.36)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.68</v>
+        <v>36199.98</v>
       </c>
       <c r="G8">
-        <v>0.82</v>
+        <v>190.26</v>
       </c>
     </row>
     <row r="9">
@@ -1837,25 +2475,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>monthly_income5000-10000 pula</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.09 (-1.99, 1.8)</t>
+          <t>15.61 (-357.3, 388.52)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.93</v>
+        <v>36200.31</v>
       </c>
       <c r="G9">
-        <v>0.97</v>
+        <v>190.26</v>
       </c>
     </row>
     <row r="10">
@@ -1866,25 +2504,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.76 (0.36, 1.15)</t>
+          <t>14.8 (-358.12, 387.73)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04</v>
+        <v>36202.34</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>190.27</v>
       </c>
     </row>
     <row r="11">
@@ -1895,25 +2533,344 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16.92 (-355.98, 389.83)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.93</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>36199.37</v>
+      </c>
+      <c r="G11">
+        <v>190.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.72 (0.28, 1.16)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>partners_12mos</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-0.84 (-1.58, -0.1)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.03</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.14</v>
-      </c>
-      <c r="G11">
-        <v>0.38</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-1.2 (-2.15, -0.24)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.24</v>
+      </c>
+      <c r="G13">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-3.57 (-17.05, 9.91)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>47.32</v>
+      </c>
+      <c r="G14">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>marital_statusMarried</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-1.1 (-3.66, 1.46)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.71</v>
+      </c>
+      <c r="G15">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-0.62 (-2.96, 1.72)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.42</v>
+      </c>
+      <c r="G16">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.81 (-4, 2.38)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.62</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.65</v>
+      </c>
+      <c r="G17">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-3.07 (-5.59, -0.55)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.02</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.66</v>
+      </c>
+      <c r="G18">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-2.7 (-5.34, -0.06)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.81</v>
+      </c>
+      <c r="G19">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-1.1 (-3.14, 0.94)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.29</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.08</v>
+      </c>
+      <c r="G20">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-0.43 (-2.75, 1.89)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.72</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.4</v>
+      </c>
+      <c r="G21">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-6.85 (-21.67, 7.98)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.37</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>57.23</v>
+      </c>
+      <c r="G22">
+        <v>7.57</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +2880,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1979,20 +2936,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.31 (0.09, 1.02)</t>
+          <t>0.4 (0.1, 1.55)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="G2">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2008,20 +2965,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>603.36 (0.1, 3579781.37)</t>
+          <t>1648795.92 (2.05, 1327418370493.8)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.65</v>
+        <v>48.14</v>
       </c>
       <c r="G3">
-        <v>4.43</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -2032,25 +2989,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>genderMale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.11 (1.04, 1.19)</t>
+          <t>2.73 (0.67, 11.06)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -2061,25 +3018,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.12 (0.01, 0.95)</t>
+          <t>1.12 (1.03, 1.22)</t>
         </is>
       </c>
       <c r="D5">
+        <v>0.01</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.04</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1.13</v>
-      </c>
-      <c r="G5">
-        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -2090,25 +3047,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0 (0, Inf)</t>
+          <t>4210754.19 (0, 3.77596293756042e+168)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1048577.3</v>
+        <v>36200.24</v>
       </c>
       <c r="G6">
-        <v>1024</v>
+        <v>190.26</v>
       </c>
     </row>
     <row r="7">
@@ -2119,25 +3076,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>monthly_income200-499 pula</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.15 (0.02, 1.24)</t>
+          <t>0.01 (0, Inf)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.16</v>
+        <v>524853.97</v>
       </c>
       <c r="G7">
-        <v>1.08</v>
+        <v>724.47</v>
       </c>
     </row>
     <row r="8">
@@ -2148,25 +3105,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>monthly_income500-999 pula</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.72 (0.14, 3.62)</t>
+          <t>14004866.1 (0, 1.25424302477298e+169)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.68</v>
+        <v>36199.98</v>
       </c>
       <c r="G8">
-        <v>0.82</v>
+        <v>190.26</v>
       </c>
     </row>
     <row r="9">
@@ -2177,25 +3134,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>monthly_income5000-10000 pula</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.91 (0.14, 6.04)</t>
+          <t>6025474.27 (0, 5.40526908967953e+168)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.93</v>
+        <v>36200.31</v>
       </c>
       <c r="G9">
-        <v>0.97</v>
+        <v>190.26</v>
       </c>
     </row>
     <row r="10">
@@ -2206,25 +3163,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.13 (1.44, 3.15)</t>
+          <t>2688395.21 (0, 2.43709513550408e+168)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04</v>
+        <v>36202.34</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>190.27</v>
       </c>
     </row>
     <row r="11">
@@ -2235,25 +3192,344 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22327439 (0, 1.99327451110429e+169)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.93</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>36199.37</v>
+      </c>
+      <c r="G11">
+        <v>190.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.05 (1.32, 3.18)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>partners_12mos</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.43 (0.21, 0.9)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.03</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.14</v>
-      </c>
-      <c r="G11">
-        <v>0.38</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.3 (0.12, 0.78)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.24</v>
+      </c>
+      <c r="G13">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.03 (0, 20223.75)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>47.32</v>
+      </c>
+      <c r="G14">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>marital_statusMarried</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.33 (0.03, 4.32)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.71</v>
+      </c>
+      <c r="G15">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.54 (0.05, 5.57)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.42</v>
+      </c>
+      <c r="G16">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.44 (0.02, 10.8)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.62</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.65</v>
+      </c>
+      <c r="G17">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.05 (0, 0.58)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.02</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.66</v>
+      </c>
+      <c r="G18">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.07 (0, 0.94)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.81</v>
+      </c>
+      <c r="G19">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.33 (0.04, 2.57)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.29</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.08</v>
+      </c>
+      <c r="G20">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.65 (0.06, 6.61)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.72</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.4</v>
+      </c>
+      <c r="G21">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0 (0, 2926.59)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.37</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>57.23</v>
+      </c>
+      <c r="G22">
+        <v>7.57</v>
       </c>
     </row>
   </sheetData>
@@ -2311,85 +3587,85 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>T_k:age</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>gender</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>marital_status</t>
+          <t>monthly_income</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>T_k:prop_began_infected</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>age</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>T_k:education</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>monthly_income</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>marital_status</t>
+          <t>T_k:gender</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>prop_vlsupp</t>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+          <t>marital_status</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>prop_began_infected</t>
         </is>
@@ -2398,57 +3674,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>T_k:age</t>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>marital_status</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>prop_male</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>gender</t>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>education</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>T_k*gender</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>prop_vlsupp</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>T_k:gender</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T_k*gender</t>
+          <t>T_k*age</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T_k*age</t>
+          <t>T_k*monthly_income</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T_k*monthly_income</t>
+          <t>T_k*education</t>
         </is>
       </c>
     </row>
